--- a/ASSET HANDOVER FORM - ABCH.xlsx
+++ b/ASSET HANDOVER FORM - ABCH.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\reportexcel3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\simasset1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262CE178-3738-4430-82E5-DE9F3D0420D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE8DEB3-4EA0-42A1-82BD-38B40BCEE340}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="731" xr2:uid="{EF63076B-DFAF-4259-AA61-754A073A229B}"/>
   </bookViews>
@@ -652,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -914,6 +914,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -944,12 +986,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -972,39 +1008,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1411,8 +1414,8 @@
   </sheetPr>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,33 +2001,33 @@
     <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
-      <c r="B5" s="101" t="s">
+      <c r="B5" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="102"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="116"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42"/>
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="104"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="118"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="85"/>
@@ -2045,7 +2048,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="90"/>
-      <c r="D8" s="88"/>
+      <c r="D8" s="101"/>
       <c r="E8" s="88"/>
       <c r="F8" s="88"/>
       <c r="G8" s="88"/>
@@ -2215,9 +2218,9 @@
         <v>2</v>
       </c>
       <c r="C20" s="45"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -2252,17 +2255,17 @@
     </row>
     <row r="23" spans="1:11" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
       <c r="K23" s="17"/>
     </row>
     <row r="24" spans="1:11" s="18" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2280,51 +2283,51 @@
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="115"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="127"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="130" t="s">
+      <c r="B26" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="119" t="s">
+      <c r="C26" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="111" t="s">
+      <c r="D26" s="113" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="127" t="s">
+      <c r="E26" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="128"/>
-      <c r="G26" s="127" t="s">
+      <c r="F26" s="109"/>
+      <c r="G26" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="129"/>
-      <c r="I26" s="111" t="s">
+      <c r="H26" s="110"/>
+      <c r="I26" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="125" t="s">
+      <c r="J26" s="106" t="s">
         <v>26</v>
       </c>
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="112"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="114"/>
       <c r="E27" s="77" t="s">
         <v>12</v>
       </c>
@@ -2337,8 +2340,8 @@
       <c r="H27" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="112"/>
-      <c r="J27" s="126"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="107"/>
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11" s="3" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2423,20 +2426,20 @@
     </row>
     <row r="34" spans="1:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="123" t="s">
+      <c r="B34" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="124"/>
+      <c r="C34" s="105"/>
       <c r="E34" s="48"/>
-      <c r="F34" s="109" t="s">
+      <c r="F34" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="109"/>
+      <c r="G34" s="123"/>
       <c r="H34" s="48"/>
-      <c r="I34" s="109" t="s">
+      <c r="I34" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="110"/>
+      <c r="J34" s="124"/>
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11" s="3" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2471,58 +2474,58 @@
     </row>
     <row r="37" spans="1:11" s="3" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="113" t="s">
+      <c r="B37" s="125" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="114"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="115"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="126"/>
+      <c r="J37" s="127"/>
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="105" t="s">
+      <c r="B38" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="106"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="108"/>
+      <c r="C38" s="120"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="122"/>
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="105"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="108"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="121"/>
+      <c r="H39" s="121"/>
+      <c r="I39" s="121"/>
+      <c r="J39" s="122"/>
       <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="105"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="108"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="122"/>
       <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2573,10 +2576,10 @@
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
       <c r="H44" s="30"/>
-      <c r="I44" s="121" t="s">
+      <c r="I44" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="J44" s="122"/>
+      <c r="J44" s="103"/>
       <c r="K44" s="17"/>
     </row>
     <row r="45" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2661,13 +2664,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D26:D27"/>
     <mergeCell ref="B5:K5"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B38:J40"/>
@@ -2679,6 +2675,13 @@
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="C26:C27"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D26:D27"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>

--- a/ASSET HANDOVER FORM - ABCH.xlsx
+++ b/ASSET HANDOVER FORM - ABCH.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\simasset1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE8DEB3-4EA0-42A1-82BD-38B40BCEE340}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6E8685-EACD-46DA-AA07-3E50C64696D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="731" xr2:uid="{EF63076B-DFAF-4259-AA61-754A073A229B}"/>
   </bookViews>
@@ -127,7 +127,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +177,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -649,10 +661,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -917,6 +930,66 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -950,68 +1023,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1414,8 +1432,8 @@
   </sheetPr>
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2001,33 +2019,33 @@
     <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="116"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="103"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42"/>
-      <c r="B6" s="117" t="s">
+      <c r="B6" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="118"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="105"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="85"/>
@@ -2218,9 +2236,9 @@
         <v>2</v>
       </c>
       <c r="C20" s="45"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -2255,17 +2273,17 @@
     </row>
     <row r="23" spans="1:11" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="130"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="119"/>
+      <c r="J23" s="119"/>
       <c r="K23" s="17"/>
     </row>
     <row r="24" spans="1:11" s="18" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2283,51 +2301,51 @@
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="125" t="s">
+      <c r="B25" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="126"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="127"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="116"/>
       <c r="K25" s="6"/>
     </row>
     <row r="26" spans="1:11" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="131" t="s">
+      <c r="C26" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="113" t="s">
+      <c r="D26" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="108" t="s">
+      <c r="E26" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="109"/>
-      <c r="G26" s="108" t="s">
+      <c r="F26" s="129"/>
+      <c r="G26" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="110"/>
-      <c r="I26" s="113" t="s">
+      <c r="H26" s="130"/>
+      <c r="I26" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="106" t="s">
+      <c r="J26" s="126" t="s">
         <v>26</v>
       </c>
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="112"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="114"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="113"/>
       <c r="E27" s="77" t="s">
         <v>12</v>
       </c>
@@ -2340,8 +2358,8 @@
       <c r="H27" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="114"/>
-      <c r="J27" s="107"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="127"/>
       <c r="K27" s="6"/>
     </row>
     <row r="28" spans="1:11" s="3" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2349,11 +2367,11 @@
       <c r="B28" s="23"/>
       <c r="C28" s="95"/>
       <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="134"/>
       <c r="J28" s="64"/>
       <c r="K28" s="6"/>
     </row>
@@ -2426,20 +2444,20 @@
     </row>
     <row r="34" spans="1:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="104" t="s">
+      <c r="B34" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="105"/>
+      <c r="C34" s="125"/>
       <c r="E34" s="48"/>
-      <c r="F34" s="123" t="s">
+      <c r="F34" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="123"/>
+      <c r="G34" s="110"/>
       <c r="H34" s="48"/>
-      <c r="I34" s="123" t="s">
+      <c r="I34" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="J34" s="124"/>
+      <c r="J34" s="111"/>
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="1:11" s="3" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2474,58 +2492,58 @@
     </row>
     <row r="37" spans="1:11" s="3" customFormat="1" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="125" t="s">
+      <c r="B37" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="126"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="127"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="116"/>
       <c r="K37" s="6"/>
     </row>
     <row r="38" spans="1:11" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="119" t="s">
+      <c r="B38" s="106" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="120"/>
-      <c r="D38" s="121"/>
-      <c r="E38" s="121"/>
-      <c r="F38" s="121"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="122"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="108"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="109"/>
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="119"/>
-      <c r="C39" s="120"/>
-      <c r="D39" s="121"/>
-      <c r="E39" s="121"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="121"/>
-      <c r="H39" s="121"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="122"/>
+      <c r="B39" s="106"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="108"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="109"/>
       <c r="K39" s="6"/>
     </row>
     <row r="40" spans="1:11" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="120"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="122"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="109"/>
       <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:11" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2576,10 +2594,10 @@
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
       <c r="H44" s="30"/>
-      <c r="I44" s="102" t="s">
+      <c r="I44" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="J44" s="103"/>
+      <c r="J44" s="123"/>
       <c r="K44" s="17"/>
     </row>
     <row r="45" spans="1:11" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2664,6 +2682,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D26:D27"/>
     <mergeCell ref="B5:K5"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B38:J40"/>
@@ -2675,13 +2700,6 @@
     <mergeCell ref="D20:F20"/>
     <mergeCell ref="B23:J23"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D26:D27"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
